--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gnai2-Cxcr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gnai2-Cxcr1.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H2">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I2">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J2">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.141183</v>
+        <v>0.011299</v>
       </c>
       <c r="N2">
-        <v>0.423549</v>
+        <v>0.033897</v>
       </c>
       <c r="O2">
-        <v>0.3560479966105798</v>
+        <v>0.3524439315012944</v>
       </c>
       <c r="P2">
-        <v>0.3560479966105798</v>
+        <v>0.3524439315012944</v>
       </c>
       <c r="Q2">
-        <v>27.592154525187</v>
+        <v>2.232042541396333</v>
       </c>
       <c r="R2">
-        <v>248.329390726683</v>
+        <v>20.088382872567</v>
       </c>
       <c r="S2">
-        <v>0.1102232642460727</v>
+        <v>0.1194328076426589</v>
       </c>
       <c r="T2">
-        <v>0.1102232642460727</v>
+        <v>0.1194328076426589</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H3">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I3">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J3">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.001019</v>
       </c>
       <c r="O3">
-        <v>0.0008566019717817321</v>
+        <v>0.01059504871227008</v>
       </c>
       <c r="P3">
-        <v>0.000856601971781732</v>
+        <v>0.01059504871227008</v>
       </c>
       <c r="Q3">
-        <v>0.06638288713033333</v>
+        <v>0.06709889812322221</v>
       </c>
       <c r="R3">
-        <v>0.5974459841729999</v>
+        <v>0.6038900831089999</v>
       </c>
       <c r="S3">
-        <v>0.0002651818473582703</v>
+        <v>0.003590348142545636</v>
       </c>
       <c r="T3">
-        <v>0.0002651818473582703</v>
+        <v>0.003590348142545635</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H4">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I4">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J4">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.2550053333333333</v>
+        <v>0.02042033333333334</v>
       </c>
       <c r="N4">
-        <v>0.7650159999999999</v>
+        <v>0.061261</v>
       </c>
       <c r="O4">
-        <v>0.6430954014176384</v>
+        <v>0.6369610197864354</v>
       </c>
       <c r="P4">
-        <v>0.6430954014176384</v>
+        <v>0.6369610197864355</v>
       </c>
       <c r="Q4">
-        <v>49.83706651707466</v>
+        <v>4.033901469996778</v>
       </c>
       <c r="R4">
-        <v>448.5335986536719</v>
+        <v>36.305113229971</v>
       </c>
       <c r="S4">
-        <v>0.1990857273195628</v>
+        <v>0.2158472203733937</v>
       </c>
       <c r="T4">
-        <v>0.1990857273195629</v>
+        <v>0.2158472203733937</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,40 +732,40 @@
         <v>239.481758</v>
       </c>
       <c r="I5">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J5">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.141183</v>
+        <v>0.011299</v>
       </c>
       <c r="N5">
-        <v>0.423549</v>
+        <v>0.033897</v>
       </c>
       <c r="O5">
-        <v>0.3560479966105798</v>
+        <v>0.3524439315012944</v>
       </c>
       <c r="P5">
-        <v>0.3560479966105798</v>
+        <v>0.3524439315012944</v>
       </c>
       <c r="Q5">
-        <v>11.270251013238</v>
+        <v>0.9019681278806665</v>
       </c>
       <c r="R5">
-        <v>101.432259119142</v>
+        <v>8.117713150925999</v>
       </c>
       <c r="S5">
-        <v>0.04502163303042321</v>
+        <v>0.04826278349049291</v>
       </c>
       <c r="T5">
-        <v>0.04502163303042322</v>
+        <v>0.04826278349049291</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>239.481758</v>
       </c>
       <c r="I6">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J6">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -812,10 +812,10 @@
         <v>0.001019</v>
       </c>
       <c r="O6">
-        <v>0.0008566019717817321</v>
+        <v>0.01059504871227008</v>
       </c>
       <c r="P6">
-        <v>0.000856601971781732</v>
+        <v>0.01059504871227008</v>
       </c>
       <c r="Q6">
         <v>0.02711465682244444</v>
@@ -824,10 +824,10 @@
         <v>0.244031911402</v>
       </c>
       <c r="S6">
-        <v>0.0001083157888650457</v>
+        <v>0.001450859261197519</v>
       </c>
       <c r="T6">
-        <v>0.0001083157888650457</v>
+        <v>0.001450859261197518</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>239.481758</v>
       </c>
       <c r="I7">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J7">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.2550053333333333</v>
+        <v>0.02042033333333334</v>
       </c>
       <c r="N7">
-        <v>0.7650159999999999</v>
+        <v>0.061261</v>
       </c>
       <c r="O7">
-        <v>0.6430954014176384</v>
+        <v>0.6369610197864354</v>
       </c>
       <c r="P7">
-        <v>0.6430954014176384</v>
+        <v>0.6369610197864355</v>
       </c>
       <c r="Q7">
-        <v>20.35637517534756</v>
+        <v>1.630099108537556</v>
       </c>
       <c r="R7">
-        <v>183.207376578128</v>
+        <v>14.670891976838</v>
       </c>
       <c r="S7">
-        <v>0.08131826450871621</v>
+        <v>0.08722383631032501</v>
       </c>
       <c r="T7">
-        <v>0.08131826450871622</v>
+        <v>0.08722383631032501</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,46 +912,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>162.5116576666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H8">
-        <v>487.534973</v>
+        <v>446.473251</v>
       </c>
       <c r="I8">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J8">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.141183</v>
+        <v>0.011299</v>
       </c>
       <c r="N8">
-        <v>0.423549</v>
+        <v>0.033897</v>
       </c>
       <c r="O8">
-        <v>0.3560479966105798</v>
+        <v>0.3524439315012944</v>
       </c>
       <c r="P8">
-        <v>0.3560479966105798</v>
+        <v>0.3524439315012944</v>
       </c>
       <c r="Q8">
-        <v>22.943883364353</v>
+        <v>1.681567087683</v>
       </c>
       <c r="R8">
-        <v>206.494950279177</v>
+        <v>15.134103789147</v>
       </c>
       <c r="S8">
-        <v>0.09165466642308216</v>
+        <v>0.08997780051084099</v>
       </c>
       <c r="T8">
-        <v>0.09165466642308219</v>
+        <v>0.08997780051084101</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>162.5116576666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H9">
-        <v>487.534973</v>
+        <v>446.473251</v>
       </c>
       <c r="I9">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J9">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -998,22 +998,22 @@
         <v>0.001019</v>
       </c>
       <c r="O9">
-        <v>0.0008566019717817321</v>
+        <v>0.01059504871227008</v>
       </c>
       <c r="P9">
-        <v>0.000856601971781732</v>
+        <v>0.01059504871227008</v>
       </c>
       <c r="Q9">
-        <v>0.05519979305411112</v>
+        <v>0.050550693641</v>
       </c>
       <c r="R9">
-        <v>0.496798137487</v>
+        <v>0.454956242769</v>
       </c>
       <c r="S9">
-        <v>0.0002205083829382686</v>
+        <v>0.002704881810205829</v>
       </c>
       <c r="T9">
-        <v>0.0002205083829382686</v>
+        <v>0.002704881810205829</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>162.5116576666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H10">
-        <v>487.534973</v>
+        <v>446.473251</v>
       </c>
       <c r="I10">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J10">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.2550053333333333</v>
+        <v>0.02042033333333334</v>
       </c>
       <c r="N10">
-        <v>0.7650159999999999</v>
+        <v>0.061261</v>
       </c>
       <c r="O10">
-        <v>0.6430954014176384</v>
+        <v>0.6369610197864354</v>
       </c>
       <c r="P10">
-        <v>0.6430954014176384</v>
+        <v>0.6369610197864355</v>
       </c>
       <c r="Q10">
-        <v>41.44133943384089</v>
+        <v>3.039044203279</v>
       </c>
       <c r="R10">
-        <v>372.972054904568</v>
+        <v>27.351397829511</v>
       </c>
       <c r="S10">
-        <v>0.1655470471853803</v>
+        <v>0.162614096737016</v>
       </c>
       <c r="T10">
-        <v>0.1655470471853803</v>
+        <v>0.162614096737016</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>33.73857866666668</v>
+        <v>35.426853</v>
       </c>
       <c r="H11">
-        <v>101.215736</v>
+        <v>106.280559</v>
       </c>
       <c r="I11">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J11">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.141183</v>
+        <v>0.011299</v>
       </c>
       <c r="N11">
-        <v>0.423549</v>
+        <v>0.033897</v>
       </c>
       <c r="O11">
-        <v>0.3560479966105798</v>
+        <v>0.3524439315012944</v>
       </c>
       <c r="P11">
-        <v>0.3560479966105798</v>
+        <v>0.3524439315012944</v>
       </c>
       <c r="Q11">
-        <v>4.763313751896002</v>
+        <v>0.4002880120469999</v>
       </c>
       <c r="R11">
-        <v>42.86982376706401</v>
+        <v>3.602592108422999</v>
       </c>
       <c r="S11">
-        <v>0.01902816214960389</v>
+        <v>0.02141873206169448</v>
       </c>
       <c r="T11">
-        <v>0.01902816214960389</v>
+        <v>0.02141873206169448</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>33.73857866666668</v>
+        <v>35.426853</v>
       </c>
       <c r="H12">
-        <v>101.215736</v>
+        <v>106.280559</v>
       </c>
       <c r="I12">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J12">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1184,22 +1184,22 @@
         <v>0.001019</v>
       </c>
       <c r="O12">
-        <v>0.0008566019717817321</v>
+        <v>0.01059504871227008</v>
       </c>
       <c r="P12">
-        <v>0.000856601971781732</v>
+        <v>0.01059504871227008</v>
       </c>
       <c r="Q12">
-        <v>0.01145987055377778</v>
+        <v>0.012033321069</v>
       </c>
       <c r="R12">
-        <v>0.103138834984</v>
+        <v>0.108299889621</v>
       </c>
       <c r="S12">
-        <v>4.577911228794392E-05</v>
+        <v>0.0006438825846200749</v>
       </c>
       <c r="T12">
-        <v>4.577911228794391E-05</v>
+        <v>0.0006438825846200748</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,46 +1222,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>33.73857866666668</v>
+        <v>35.426853</v>
       </c>
       <c r="H13">
-        <v>101.215736</v>
+        <v>106.280559</v>
       </c>
       <c r="I13">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J13">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.2550053333333333</v>
+        <v>0.02042033333333334</v>
       </c>
       <c r="N13">
-        <v>0.7650159999999999</v>
+        <v>0.061261</v>
       </c>
       <c r="O13">
-        <v>0.6430954014176384</v>
+        <v>0.6369610197864354</v>
       </c>
       <c r="P13">
-        <v>0.6430954014176384</v>
+        <v>0.6369610197864355</v>
       </c>
       <c r="Q13">
-        <v>8.603517499086223</v>
+        <v>0.7234281472110001</v>
       </c>
       <c r="R13">
-        <v>77.43165749177601</v>
+        <v>6.510853324899</v>
       </c>
       <c r="S13">
-        <v>0.03436874716984662</v>
+        <v>0.03870941218489736</v>
       </c>
       <c r="T13">
-        <v>0.03436874716984662</v>
+        <v>0.03870941218489736</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>159.7910413333333</v>
+        <v>121.3248153333333</v>
       </c>
       <c r="H14">
-        <v>479.373124</v>
+        <v>363.974446</v>
       </c>
       <c r="I14">
-        <v>0.2531127028358625</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="J14">
-        <v>0.2531127028358626</v>
+        <v>0.2081233388901115</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.141183</v>
+        <v>0.011299</v>
       </c>
       <c r="N14">
-        <v>0.423549</v>
+        <v>0.033897</v>
       </c>
       <c r="O14">
-        <v>0.3560479966105798</v>
+        <v>0.3524439315012944</v>
       </c>
       <c r="P14">
-        <v>0.3560479966105798</v>
+        <v>0.3524439315012944</v>
       </c>
       <c r="Q14">
-        <v>22.559778588564</v>
+        <v>1.370849088451333</v>
       </c>
       <c r="R14">
-        <v>203.038007297076</v>
+        <v>12.337641796062</v>
       </c>
       <c r="S14">
-        <v>0.09012027076139788</v>
+        <v>0.07335180779560715</v>
       </c>
       <c r="T14">
-        <v>0.09012027076139791</v>
+        <v>0.07335180779560715</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>159.7910413333333</v>
+        <v>121.3248153333333</v>
       </c>
       <c r="H15">
-        <v>479.373124</v>
+        <v>363.974446</v>
       </c>
       <c r="I15">
-        <v>0.2531127028358625</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="J15">
-        <v>0.2531127028358626</v>
+        <v>0.2081233388901115</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1370,22 +1370,22 @@
         <v>0.001019</v>
       </c>
       <c r="O15">
-        <v>0.0008566019717817321</v>
+        <v>0.01059504871227008</v>
       </c>
       <c r="P15">
-        <v>0.000856601971781732</v>
+        <v>0.01059504871227008</v>
       </c>
       <c r="Q15">
-        <v>0.05427569037288889</v>
+        <v>0.04120999560822222</v>
       </c>
       <c r="R15">
-        <v>0.488481213356</v>
+        <v>0.370889960474</v>
       </c>
       <c r="S15">
-        <v>0.0002168168403322034</v>
+        <v>0.002205076913701027</v>
       </c>
       <c r="T15">
-        <v>0.0002168168403322035</v>
+        <v>0.002205076913701027</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>159.7910413333333</v>
+        <v>121.3248153333333</v>
       </c>
       <c r="H16">
-        <v>479.373124</v>
+        <v>363.974446</v>
       </c>
       <c r="I16">
-        <v>0.2531127028358625</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="J16">
-        <v>0.2531127028358626</v>
+        <v>0.2081233388901115</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.2550053333333333</v>
+        <v>0.02042033333333334</v>
       </c>
       <c r="N16">
-        <v>0.7650159999999999</v>
+        <v>0.061261</v>
       </c>
       <c r="O16">
-        <v>0.6430954014176384</v>
+        <v>0.6369610197864354</v>
       </c>
       <c r="P16">
-        <v>0.6430954014176384</v>
+        <v>0.6369610197864355</v>
       </c>
       <c r="Q16">
-        <v>40.74756775888711</v>
+        <v>2.477493170711778</v>
       </c>
       <c r="R16">
-        <v>366.728109829984</v>
+        <v>22.297438536406</v>
       </c>
       <c r="S16">
-        <v>0.1627756152341324</v>
+        <v>0.1325664541808033</v>
       </c>
       <c r="T16">
-        <v>0.1627756152341325</v>
+        <v>0.1325664541808033</v>
       </c>
     </row>
   </sheetData>
